--- a/_Out/Server/NFDataCfg/Excel_Struct/Map.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="8970"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <t>Save</t>
   </si>
   <si>
-    <t>View</t>
+    <t>Cache</t>
   </si>
   <si>
     <t>Index</t>
@@ -145,10 +145,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -158,6 +158,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -165,32 +166,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,14 +182,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -217,24 +211,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,8 +278,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,47 +301,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,187 +324,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,6 +515,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,6 +544,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -544,6 +564,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,34 +601,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,16 +611,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,148 +620,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1195,7 +1195,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1486,7 +1486,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Map.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24165" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -145,10 +145,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -158,17 +158,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,6 +174,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -196,6 +194,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -211,6 +217,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -226,6 +248,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -234,37 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,21 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -301,9 +302,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,25 +324,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,43 +450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,13 +468,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,48 +492,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,42 +505,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,17 +515,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,11 +533,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,17 +574,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,8 +601,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,8 +610,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,148 +620,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,7 +1194,7 @@
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1485,8 +1485,8 @@
   <sheetPr/>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1576,7 +1576,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -1632,15 +1632,15 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 N1 N2 P2 Q2 M3:M1048576 N3:N1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 L$1:L$1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 N1 N2 P2 Q2 M3:M1048576 N3:N1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
